--- a/844888_Opencart/src/test/resources/Testdata/exceloc.xlsx
+++ b/844888_Opencart/src/test/resources/Testdata/exceloc.xlsx
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="2">
   <si>
     <t>With 80GB or 160GB of storage and up to 40 hours of battery life, the new iPod classic lets you enjoy up to 40,000 songs or up to 200 hours of video or any combination wherever you go.</t>
+  </si>
+  <si>
+    <t>iPod Classic</t>
   </si>
 </sst>
 </file>
@@ -340,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,6 +351,11 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/844888_Opencart/src/test/resources/Testdata/exceloc.xlsx
+++ b/844888_Opencart/src/test/resources/Testdata/exceloc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="2">
   <si>
     <t>With 80GB or 160GB of storage and up to 40 hours of battery life, the new iPod classic lets you enjoy up to 40,000 songs or up to 200 hours of video or any combination wherever you go.</t>
   </si>

--- a/844888_Opencart/src/test/resources/Testdata/exceloc.xlsx
+++ b/844888_Opencart/src/test/resources/Testdata/exceloc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="2">
   <si>
     <t>With 80GB or 160GB of storage and up to 40 hours of battery life, the new iPod classic lets you enjoy up to 40,000 songs or up to 200 hours of video or any combination wherever you go.</t>
   </si>

--- a/844888_Opencart/src/test/resources/Testdata/exceloc.xlsx
+++ b/844888_Opencart/src/test/resources/Testdata/exceloc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="2">
   <si>
     <t>With 80GB or 160GB of storage and up to 40 hours of battery life, the new iPod classic lets you enjoy up to 40,000 songs or up to 200 hours of video or any combination wherever you go.</t>
   </si>
